--- a/04_Model_Saved/NN_full_v3_BO_0/hypertable_sort_NN_full_v3_BO_0.xlsx
+++ b/04_Model_Saved/NN_full_v3_BO_0/hypertable_sort_NN_full_v3_BO_0.xlsx
@@ -537,123 +537,123 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.6018055001894481</v>
+        <v>0.6898167425886076</v>
       </c>
       <c r="B2" t="n">
-        <v>0.6018055001894481</v>
+        <v>0.6898167425886076</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4649482819686333</v>
+        <v>0.4075831760962804</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5725717613465389</v>
+        <v>0.6688421748532893</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6310392390323574</v>
+        <v>0.710791310323926</v>
       </c>
       <c r="F2" t="n">
-        <v>0.4925697922209898</v>
+        <v>0.4180693439145882</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4373267717162768</v>
+        <v>0.3970970082779726</v>
       </c>
       <c r="H2" t="n">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="I2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="K2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L2" t="n">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="M2" t="n">
         <v>5</v>
       </c>
       <c r="N2" t="n">
-        <v>0.1</v>
+        <v>0.2118738687166879</v>
       </c>
       <c r="O2" t="n">
-        <v>0.1</v>
+        <v>0.4029968666306289</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.0004938284901364233</v>
+        <v>0.0002579777540549084</v>
       </c>
       <c r="R2" t="n">
-        <v>0.0009025957007038718</v>
+        <v>0.0005268564257125319</v>
       </c>
       <c r="S2" t="n">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="T2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.5609991220493225</v>
+        <v>0.6856370706180727</v>
       </c>
       <c r="B3" t="n">
-        <v>0.6018055001894481</v>
+        <v>0.6898167425886076</v>
       </c>
       <c r="C3" t="n">
-        <v>0.512895400126775</v>
+        <v>0.422483402316769</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5651894059401582</v>
+        <v>0.6607819345791067</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5568088381584868</v>
+        <v>0.7104922066570385</v>
       </c>
       <c r="F3" t="n">
-        <v>0.5072185539702574</v>
+        <v>0.4383321314056714</v>
       </c>
       <c r="G3" t="n">
-        <v>0.5185722462832928</v>
+        <v>0.4066346732278665</v>
       </c>
       <c r="H3" t="n">
-        <v>81</v>
+        <v>125</v>
       </c>
       <c r="I3" t="n">
         <v>2</v>
       </c>
       <c r="J3" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K3" t="n">
         <v>4</v>
       </c>
       <c r="L3" t="n">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="M3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N3" t="n">
-        <v>0.1</v>
+        <v>0.4427765473272868</v>
       </c>
       <c r="O3" t="n">
-        <v>0.1</v>
+        <v>0.468140699063148</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.0004261398183330302</v>
+        <v>0.000945826894943723</v>
       </c>
       <c r="R3" t="n">
-        <v>0.0004063526084834045</v>
+        <v>0.0009955841486952604</v>
       </c>
       <c r="S3" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="T3" t="n">
         <v>2</v>
@@ -661,61 +661,61 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.4927461508133971</v>
+        <v>0.6674124984843033</v>
       </c>
       <c r="B4" t="n">
-        <v>0.6018055001894481</v>
+        <v>0.6674124984843033</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5823699516057969</v>
+        <v>0.4796630648275216</v>
       </c>
       <c r="D4" t="n">
-        <v>0.532971276652203</v>
+        <v>0.6599267092520907</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4525210249745911</v>
+        <v>0.6748982877165162</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5473530745009582</v>
+        <v>0.4941739052037399</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6173868287106355</v>
+        <v>0.4651522244513035</v>
       </c>
       <c r="H4" t="n">
-        <v>66</v>
+        <v>99</v>
       </c>
       <c r="I4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J4" t="n">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="K4" t="n">
         <v>4</v>
       </c>
       <c r="L4" t="n">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="M4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1</v>
+        <v>0.275034884505077</v>
       </c>
       <c r="O4" t="n">
-        <v>0.1</v>
+        <v>0.4567092003128319</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.0003552879009142355</v>
+        <v>0.0004450973669431999</v>
       </c>
       <c r="R4" t="n">
-        <v>0.0002558883428706379</v>
+        <v>0.0008125525342743982</v>
       </c>
       <c r="S4" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="T4" t="n">
         <v>3</v>
